--- a/個人課表/T1234567.xlsx
+++ b/個人課表/T1234567.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\個人課表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909F6A08-1325-4FAA-9447-54B90759BA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEE7D8B-0AA1-4A6D-8EFE-B43873D8F77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10210" yWindow="340" windowWidth="8850" windowHeight="9250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="9710" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,19 +81,13 @@
   <si>
     <t>16:00-17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程式設計入門</t>
-  </si>
-  <si>
-    <t>教育心理學</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,12 +116,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,12 +125,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -156,7 +159,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -440,7 +445,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -448,7 +453,7 @@
     <col min="1" max="1" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,28 +470,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4">
+        <v>2584</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
+      <c r="B3" s="4">
+        <v>2584</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
+      <c r="F3" s="4">
+        <v>7642</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/個人課表/T1234567.xlsx
+++ b/個人課表/T1234567.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\個人課表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEE7D8B-0AA1-4A6D-8EFE-B43873D8F77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96BF7D3-B749-4561-88F2-7E58B1C634E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="9710" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="380" windowWidth="6650" windowHeight="9610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課表" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -477,6 +477,7 @@
       <c r="B2" s="4">
         <v>2584</v>
       </c>
+      <c r="D2" s="4"/>
       <c r="F2" s="4">
         <v>7642</v>
       </c>
@@ -489,17 +490,21 @@
         <v>2584</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4">
+        <v>9823</v>
+      </c>
       <c r="F3" s="4">
         <v>7642</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4">
+        <v>9823</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
